--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1124.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1124.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.089043411481985</v>
+        <v>1.162369132041931</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>2.369465589523315</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.395141124725342</v>
       </c>
       <c r="E1">
-        <v>1.134615030134755</v>
+        <v>1.218288779258728</v>
       </c>
     </row>
   </sheetData>
